--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna4-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna4-Epha3.xlsx
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Efna4</t>
   </si>
   <si>
     <t>Epha3</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7471093333333334</v>
+        <v>1.180761</v>
       </c>
       <c r="H2">
-        <v>2.241328</v>
+        <v>3.542283</v>
       </c>
       <c r="I2">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J2">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.05620966666666666</v>
+        <v>0.114581</v>
       </c>
       <c r="N2">
-        <v>0.168629</v>
+        <v>0.343743</v>
       </c>
       <c r="O2">
-        <v>0.003368847317172573</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P2">
-        <v>0.003368847317172572</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q2">
-        <v>0.04199476659022223</v>
+        <v>0.135292776141</v>
       </c>
       <c r="R2">
-        <v>0.377952899312</v>
+        <v>1.217634985269</v>
       </c>
       <c r="S2">
-        <v>0.001566019255440333</v>
+        <v>0.004660422144524398</v>
       </c>
       <c r="T2">
-        <v>0.001566019255440333</v>
+        <v>0.004660422144524398</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7471093333333334</v>
+        <v>1.180761</v>
       </c>
       <c r="H3">
-        <v>2.241328</v>
+        <v>3.542283</v>
       </c>
       <c r="I3">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J3">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>44.563349</v>
       </c>
       <c r="O3">
-        <v>0.8902805491515402</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P3">
-        <v>0.8902805491515401</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q3">
-        <v>11.09789798749689</v>
+        <v>17.539554842863</v>
       </c>
       <c r="R3">
-        <v>99.88108188747202</v>
+        <v>157.855993585767</v>
       </c>
       <c r="S3">
-        <v>0.4138497092487516</v>
+        <v>0.6041839936050165</v>
       </c>
       <c r="T3">
-        <v>0.4138497092487515</v>
+        <v>0.6041839936050165</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,61 +661,61 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7471093333333334</v>
+        <v>1.180761</v>
       </c>
       <c r="H4">
-        <v>2.241328</v>
+        <v>3.542283</v>
       </c>
       <c r="I4">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J4">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.752099666666667</v>
+        <v>0.037105</v>
       </c>
       <c r="N4">
-        <v>5.256299</v>
+        <v>0.111315</v>
       </c>
       <c r="O4">
-        <v>0.1050096293307016</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P4">
-        <v>0.1050096293307016</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q4">
-        <v>1.309010013896889</v>
+        <v>0.043812136905</v>
       </c>
       <c r="R4">
-        <v>11.781090125072</v>
+        <v>0.394309232145</v>
       </c>
       <c r="S4">
-        <v>0.04881405598296716</v>
+        <v>0.001509194052003192</v>
       </c>
       <c r="T4">
-        <v>0.04881405598296715</v>
+        <v>0.001509194052003192</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7471093333333334</v>
+        <v>0.4799286666666667</v>
       </c>
       <c r="H5">
-        <v>2.241328</v>
+        <v>1.439786</v>
       </c>
       <c r="I5">
-        <v>0.4648531405557055</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J5">
-        <v>0.4648531405557055</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.02237433333333333</v>
+        <v>0.114581</v>
       </c>
       <c r="N5">
-        <v>0.067123</v>
+        <v>0.343743</v>
       </c>
       <c r="O5">
-        <v>0.001340974200585751</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P5">
-        <v>0.001340974200585751</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q5">
-        <v>0.01671607326044445</v>
+        <v>0.05499070655533334</v>
       </c>
       <c r="R5">
-        <v>0.150444659344</v>
+        <v>0.494916358998</v>
       </c>
       <c r="S5">
-        <v>0.0006233560685464628</v>
+        <v>0.001894261570229201</v>
       </c>
       <c r="T5">
-        <v>0.0006233560685464628</v>
+        <v>0.001894261570229201</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>1.439786</v>
       </c>
       <c r="I6">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J6">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05620966666666666</v>
+        <v>14.85444966666667</v>
       </c>
       <c r="N6">
-        <v>0.168629</v>
+        <v>44.563349</v>
       </c>
       <c r="O6">
-        <v>0.003368847317172573</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P6">
-        <v>0.003368847317172572</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q6">
-        <v>0.02697663037711111</v>
+        <v>7.129076222590445</v>
       </c>
       <c r="R6">
-        <v>0.242789673394</v>
+        <v>64.161686003314</v>
       </c>
       <c r="S6">
-        <v>0.001005980650629188</v>
+        <v>0.245574861019459</v>
       </c>
       <c r="T6">
-        <v>0.001005980650629188</v>
+        <v>0.245574861019459</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,54 +853,54 @@
         <v>1.439786</v>
       </c>
       <c r="I7">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J7">
-        <v>0.2986127170267525</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>14.85444966666667</v>
+        <v>0.037105</v>
       </c>
       <c r="N7">
-        <v>44.563349</v>
+        <v>0.111315</v>
       </c>
       <c r="O7">
-        <v>0.8902805491515402</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P7">
-        <v>0.8902805491515401</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q7">
-        <v>7.129076222590446</v>
+        <v>0.01780775317666667</v>
       </c>
       <c r="R7">
-        <v>64.16168600331402</v>
+        <v>0.16026977859</v>
       </c>
       <c r="S7">
-        <v>0.2658490936982106</v>
+        <v>0.0006134226055223335</v>
       </c>
       <c r="T7">
-        <v>0.2658490936982106</v>
+        <v>0.0006134226055223335</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4799286666666667</v>
+        <v>0.2047916666666667</v>
       </c>
       <c r="H8">
-        <v>1.439786</v>
+        <v>0.614375</v>
       </c>
       <c r="I8">
-        <v>0.2986127170267525</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="J8">
-        <v>0.2986127170267525</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,43 +927,43 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.752099666666667</v>
+        <v>0.114581</v>
       </c>
       <c r="N8">
-        <v>5.256299</v>
+        <v>0.343743</v>
       </c>
       <c r="O8">
-        <v>0.1050096293307016</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P8">
-        <v>0.1050096293307016</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q8">
-        <v>0.8408828568904446</v>
+        <v>0.02346523395833333</v>
       </c>
       <c r="R8">
-        <v>7.567945712014001</v>
+        <v>0.211187105625</v>
       </c>
       <c r="S8">
-        <v>0.03135721072841296</v>
+        <v>0.0008083055066583266</v>
       </c>
       <c r="T8">
-        <v>0.03135721072841295</v>
+        <v>0.0008083055066583265</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4799286666666667</v>
+        <v>0.2047916666666667</v>
       </c>
       <c r="H9">
-        <v>1.439786</v>
+        <v>0.614375</v>
       </c>
       <c r="I9">
-        <v>0.2986127170267525</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="J9">
-        <v>0.2986127170267525</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02237433333333333</v>
+        <v>14.85444966666667</v>
       </c>
       <c r="N9">
-        <v>0.067123</v>
+        <v>44.563349</v>
       </c>
       <c r="O9">
-        <v>0.001340974200585751</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P9">
-        <v>0.001340974200585751</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q9">
-        <v>0.01073808396422222</v>
+        <v>3.042067504652778</v>
       </c>
       <c r="R9">
-        <v>0.09664275567800001</v>
+        <v>27.378607541875</v>
       </c>
       <c r="S9">
-        <v>0.0004004319494996884</v>
+        <v>0.1047899168618323</v>
       </c>
       <c r="T9">
-        <v>0.0004004319494996884</v>
+        <v>0.1047899168618323</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3801563333333333</v>
+        <v>0.2047916666666667</v>
       </c>
       <c r="H10">
-        <v>1.140469</v>
+        <v>0.614375</v>
       </c>
       <c r="I10">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="J10">
-        <v>0.2365341424175421</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,184 +1051,184 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.05620966666666666</v>
+        <v>0.037105</v>
       </c>
       <c r="N10">
-        <v>0.168629</v>
+        <v>0.111315</v>
       </c>
       <c r="O10">
-        <v>0.003368847317172573</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P10">
-        <v>0.003368847317172572</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q10">
-        <v>0.02136846077788889</v>
+        <v>0.007598794791666667</v>
       </c>
       <c r="R10">
-        <v>0.192316147001</v>
+        <v>0.068389153125</v>
       </c>
       <c r="S10">
-        <v>0.000796847411103052</v>
+        <v>0.0002617552283935138</v>
       </c>
       <c r="T10">
-        <v>0.0007968474111030518</v>
+        <v>0.0002617552283935138</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.3801563333333333</v>
+        <v>0.06907100000000001</v>
       </c>
       <c r="H11">
-        <v>1.140469</v>
+        <v>0.207213</v>
       </c>
       <c r="I11">
-        <v>0.2365341424175421</v>
+        <v>0.03570386740636119</v>
       </c>
       <c r="J11">
-        <v>0.2365341424175421</v>
+        <v>0.03570386740636119</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>14.85444966666667</v>
+        <v>0.114581</v>
       </c>
       <c r="N11">
-        <v>44.563349</v>
+        <v>0.343743</v>
       </c>
       <c r="O11">
-        <v>0.8902805491515402</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P11">
-        <v>0.8902805491515401</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q11">
-        <v>5.647013118964556</v>
+        <v>0.007914224251000001</v>
       </c>
       <c r="R11">
-        <v>50.823118070681</v>
+        <v>0.07122801825900001</v>
       </c>
       <c r="S11">
-        <v>0.210581746204578</v>
+        <v>0.0002726208080589084</v>
       </c>
       <c r="T11">
-        <v>0.210581746204578</v>
+        <v>0.0002726208080589084</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.3801563333333333</v>
+        <v>0.06907100000000001</v>
       </c>
       <c r="H12">
-        <v>1.140469</v>
+        <v>0.207213</v>
       </c>
       <c r="I12">
-        <v>0.2365341424175421</v>
+        <v>0.03570386740636119</v>
       </c>
       <c r="J12">
-        <v>0.2365341424175421</v>
+        <v>0.03570386740636119</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.752099666666667</v>
+        <v>14.85444966666667</v>
       </c>
       <c r="N12">
-        <v>5.256299</v>
+        <v>44.563349</v>
       </c>
       <c r="O12">
-        <v>0.1050096293307016</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P12">
-        <v>0.1050096293307016</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q12">
-        <v>0.6660717849145555</v>
+        <v>1.026011692926333</v>
       </c>
       <c r="R12">
-        <v>5.994646064231</v>
+        <v>9.234105236337001</v>
       </c>
       <c r="S12">
-        <v>0.02483836261932148</v>
+        <v>0.03534296324344393</v>
       </c>
       <c r="T12">
-        <v>0.02483836261932147</v>
+        <v>0.03534296324344393</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.3801563333333333</v>
+        <v>0.06907100000000001</v>
       </c>
       <c r="H13">
-        <v>1.140469</v>
+        <v>0.207213</v>
       </c>
       <c r="I13">
-        <v>0.2365341424175421</v>
+        <v>0.03570386740636119</v>
       </c>
       <c r="J13">
-        <v>0.2365341424175421</v>
+        <v>0.03570386740636119</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02237433333333333</v>
+        <v>0.037105</v>
       </c>
       <c r="N13">
-        <v>0.067123</v>
+        <v>0.111315</v>
       </c>
       <c r="O13">
-        <v>0.001340974200585751</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P13">
-        <v>0.001340974200585751</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q13">
-        <v>0.008505744520777778</v>
+        <v>0.002562879455</v>
       </c>
       <c r="R13">
-        <v>0.076551700687</v>
+        <v>0.023065915095</v>
       </c>
       <c r="S13">
-        <v>0.0003171861825395997</v>
+        <v>8.828335485836041E-05</v>
       </c>
       <c r="T13">
-        <v>0.0003171861825395997</v>
+        <v>8.828335485836041E-05</v>
       </c>
     </row>
   </sheetData>
